--- a/data/tab_dec_8468.xlsx
+++ b/data/tab_dec_8468.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\open_mpsp\norma_dec_8468-76\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA7FCBD-A5D3-4D0C-8CDF-1E2592C3FA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC9480A-0498-4A3B-BF7F-4C010829361A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="padrao_qualidade" sheetId="1" r:id="rId1"/>
+    <sheet name="dec_8468" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">padrao_qualidade!$A$1:$J$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dec_8468!$A$1:$J$84</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -1143,7 +1143,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
